--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6547,8 +6547,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="476" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95dfcc87ed256f4aed73fd9ca228c514">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88209df52733b038c0f2ab805b0d468e" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -6572,6 +6572,10 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:Survey_x0020_Type" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6634,6 +6638,28 @@
           <xsd:enumeration value="DHS"/>
           <xsd:enumeration value="MIS"/>
           <xsd:enumeration value="SPA"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="25" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="26" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
@@ -6864,7 +6890,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE0C9E42-E7D2-4D40-B51E-4D86B212BDA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85992D2E-5675-4CE4-8869-16F0149235CD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6547,7 +6547,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="481" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be21cae339529f0f311ef097f4a87693">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
@@ -6890,7 +6890,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85992D2E-5675-4CE4-8869-16F0149235CD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B70F509E-D78F-47FA-9AA0-6E18D3B398BB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6547,8 +6547,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fe6dd6fbc47b2b2c3033f1a9c1079fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd9e5a0c56088652e9b5d1a36fcd7f8a" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -6890,7 +6890,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B70F509E-D78F-47FA-9AA0-6E18D3B398BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30BE8E3-BC19-4C53-B9FD-38351C95860D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6547,8 +6547,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="533" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee862ef0fc8dbdbaa6c7a8968b7b48f1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd4fdd4f38f705a4fbfd7d3200bf1970" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -6576,6 +6576,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6661,6 +6662,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6890,7 +6896,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30BE8E3-BC19-4C53-B9FD-38351C95860D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B3386D-CB06-4E87-90AC-3826DD523EE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6542,16 +6542,21 @@
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <Survey_x0020_Type xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">DHS</Survey_x0020_Type>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="534" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3a765ce11b89b42bcade51542d07405">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f7cf592af29221d7e264e507c9f7a8c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
+    <xsd:import namespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -6577,6 +6582,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6669,6 +6676,13 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6856f2ee-118d-42e8-91de-064c9a66b685" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -6720,6 +6734,21 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="31" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9af71320-1412-4515-a0b2-dc1dac8ea18d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d16efad5-0601-4cf0-b7c2-89968258c777">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -6896,7 +6925,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B3386D-CB06-4E87-90AC-3826DD523EE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF955147-E689-4047-9619-C091AD518383}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
+++ b/DHS7tabplan/Tab_Plan_Chap04_Marriage_and_Sexual_Activity_VII_13April2018.xlsx
@@ -6551,8 +6551,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="537" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32af978db1d8a110ec558ab40ef27856">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="490a248aacda82af6307d667c2e14f68" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A3299ADD5D91FC4981A62029954D61DA" ma:contentTypeVersion="538" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6540646240d2a9b5b61b602982a89a80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd" xmlns:ns3="d16efad5-0601-4cf0-b7c2-89968258c777" xmlns:ns4="fa6a9aea-fb0f-4ddd-aff8-712634b7d5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e277f2c3d1f94b9475019640a9a3dec" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="aa3c2c9a-d70f-4174-bdeb-29973d8fe5cd"/>
     <xsd:import namespace="d16efad5-0601-4cf0-b7c2-89968258c777"/>
@@ -6584,6 +6584,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6682,6 +6683,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="32" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d16efad5-0601-4cf0-b7c2-89968258c777" elementFormDefault="qualified">
@@ -6925,7 +6931,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF955147-E689-4047-9619-C091AD518383}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498A7D48-BECA-4ABA-B35E-207FA4C12891}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
